--- a/natmiOut/OldD7/LR-pairs_lrc2p/Col5a3-Sdc3.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Col5a3-Sdc3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Sdc3</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.1480028309135</v>
+        <v>3.389621</v>
       </c>
       <c r="H2">
-        <v>2.1480028309135</v>
+        <v>10.168863</v>
       </c>
       <c r="I2">
-        <v>0.02552580462932513</v>
+        <v>0.03896472133961391</v>
       </c>
       <c r="J2">
-        <v>0.02552580462932513</v>
+        <v>0.03896472133961391</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.54630310326</v>
+        <v>34.36078833333333</v>
       </c>
       <c r="N2">
-        <v>33.54630310326</v>
+        <v>103.082365</v>
       </c>
       <c r="O2">
-        <v>0.3112804277707056</v>
+        <v>0.28490270239021</v>
       </c>
       <c r="P2">
-        <v>0.3112804277707056</v>
+        <v>0.28490270239021</v>
       </c>
       <c r="Q2">
-        <v>72.05755403248482</v>
+        <v>116.4700497112217</v>
       </c>
       <c r="R2">
-        <v>72.05755403248482</v>
+        <v>1048.230447400995</v>
       </c>
       <c r="S2">
-        <v>0.007945683384207784</v>
+        <v>0.01110115440753749</v>
       </c>
       <c r="T2">
-        <v>0.007945683384207784</v>
+        <v>0.01110115440753748</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.1480028309135</v>
+        <v>3.389621</v>
       </c>
       <c r="H3">
-        <v>2.1480028309135</v>
+        <v>10.168863</v>
       </c>
       <c r="I3">
-        <v>0.02552580462932513</v>
+        <v>0.03896472133961391</v>
       </c>
       <c r="J3">
-        <v>0.02552580462932513</v>
+        <v>0.03896472133961391</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>21.1680620340201</v>
+        <v>21.54461566666667</v>
       </c>
       <c r="N3">
-        <v>21.1680620340201</v>
+        <v>64.633847</v>
       </c>
       <c r="O3">
-        <v>0.1964211491425497</v>
+        <v>0.17863732245739</v>
       </c>
       <c r="P3">
-        <v>0.1964211491425497</v>
+        <v>0.1786373224573899</v>
       </c>
       <c r="Q3">
-        <v>45.46905717402776</v>
+        <v>73.02808170066234</v>
       </c>
       <c r="R3">
-        <v>45.46905717402776</v>
+        <v>657.252735305961</v>
       </c>
       <c r="S3">
-        <v>0.005013807878080255</v>
+        <v>0.006960553490406955</v>
       </c>
       <c r="T3">
-        <v>0.005013807878080255</v>
+        <v>0.006960553490406952</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.1480028309135</v>
+        <v>3.389621</v>
       </c>
       <c r="H4">
-        <v>2.1480028309135</v>
+        <v>10.168863</v>
       </c>
       <c r="I4">
-        <v>0.02552580462932513</v>
+        <v>0.03896472133961391</v>
       </c>
       <c r="J4">
-        <v>0.02552580462932513</v>
+        <v>0.03896472133961391</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>49.0201129508547</v>
+        <v>60.03138866666666</v>
       </c>
       <c r="N4">
-        <v>49.0201129508547</v>
+        <v>180.094166</v>
       </c>
       <c r="O4">
-        <v>0.4548638841585946</v>
+        <v>0.4977506538398792</v>
       </c>
       <c r="P4">
-        <v>0.4548638841585946</v>
+        <v>0.4977506538398792</v>
       </c>
       <c r="Q4">
-        <v>105.2953413901354</v>
+        <v>203.4836556836953</v>
       </c>
       <c r="R4">
-        <v>105.2953413901354</v>
+        <v>1831.352901153258</v>
       </c>
       <c r="S4">
-        <v>0.01161076663996826</v>
+        <v>0.01939471552348151</v>
       </c>
       <c r="T4">
-        <v>0.01161076663996826</v>
+        <v>0.01939471552348151</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.1480028309135</v>
+        <v>3.389621</v>
       </c>
       <c r="H5">
-        <v>2.1480028309135</v>
+        <v>10.168863</v>
       </c>
       <c r="I5">
-        <v>0.02552580462932513</v>
+        <v>0.03896472133961391</v>
       </c>
       <c r="J5">
-        <v>0.02552580462932513</v>
+        <v>0.03896472133961391</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.03427352759727</v>
+        <v>4.668551</v>
       </c>
       <c r="N5">
-        <v>4.03427352759727</v>
+        <v>14.005653</v>
       </c>
       <c r="O5">
-        <v>0.03743453892815018</v>
+        <v>0.03870932131252084</v>
       </c>
       <c r="P5">
-        <v>0.03743453892815018</v>
+        <v>0.03870932131252084</v>
       </c>
       <c r="Q5">
-        <v>8.665630957958328</v>
+        <v>15.824618509171</v>
       </c>
       <c r="R5">
-        <v>8.665630957958328</v>
+        <v>142.421566582539</v>
       </c>
       <c r="S5">
-        <v>0.0009555467270688275</v>
+        <v>0.001508297918187952</v>
       </c>
       <c r="T5">
-        <v>0.0009555467270688275</v>
+        <v>0.001508297918187952</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>71.1831383132396</v>
+        <v>71.87296166666665</v>
       </c>
       <c r="H6">
-        <v>71.1831383132396</v>
+        <v>215.618885</v>
       </c>
       <c r="I6">
-        <v>0.8459052545630247</v>
+        <v>0.8262014907254878</v>
       </c>
       <c r="J6">
-        <v>0.8459052545630247</v>
+        <v>0.8262014907254879</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>33.54630310326</v>
+        <v>34.36078833333333</v>
       </c>
       <c r="N6">
-        <v>33.54630310326</v>
+        <v>103.082365</v>
       </c>
       <c r="O6">
-        <v>0.3112804277707056</v>
+        <v>0.28490270239021</v>
       </c>
       <c r="P6">
-        <v>0.3112804277707056</v>
+        <v>0.28490270239021</v>
       </c>
       <c r="Q6">
-        <v>2387.931133697216</v>
+        <v>2469.611622718113</v>
       </c>
       <c r="R6">
-        <v>2387.931133697216</v>
+        <v>22226.50460446302</v>
       </c>
       <c r="S6">
-        <v>0.263313749493866</v>
+        <v>0.2353870374265115</v>
       </c>
       <c r="T6">
-        <v>0.263313749493866</v>
+        <v>0.2353870374265115</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>71.1831383132396</v>
+        <v>71.87296166666665</v>
       </c>
       <c r="H7">
-        <v>71.1831383132396</v>
+        <v>215.618885</v>
       </c>
       <c r="I7">
-        <v>0.8459052545630247</v>
+        <v>0.8262014907254878</v>
       </c>
       <c r="J7">
-        <v>0.8459052545630247</v>
+        <v>0.8262014907254879</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.1680620340201</v>
+        <v>21.54461566666667</v>
       </c>
       <c r="N7">
-        <v>21.1680620340201</v>
+        <v>64.633847</v>
       </c>
       <c r="O7">
-        <v>0.1964211491425497</v>
+        <v>0.17863732245739</v>
       </c>
       <c r="P7">
-        <v>0.1964211491425497</v>
+        <v>0.1786373224573899</v>
       </c>
       <c r="Q7">
-        <v>1506.809087590889</v>
+        <v>1548.475335933399</v>
       </c>
       <c r="R7">
-        <v>1506.809087590889</v>
+        <v>13936.27802340059</v>
       </c>
       <c r="S7">
-        <v>0.1661536821669903</v>
+        <v>0.1475904221135053</v>
       </c>
       <c r="T7">
-        <v>0.1661536821669903</v>
+        <v>0.1475904221135053</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>71.1831383132396</v>
+        <v>71.87296166666665</v>
       </c>
       <c r="H8">
-        <v>71.1831383132396</v>
+        <v>215.618885</v>
       </c>
       <c r="I8">
-        <v>0.8459052545630247</v>
+        <v>0.8262014907254878</v>
       </c>
       <c r="J8">
-        <v>0.8459052545630247</v>
+        <v>0.8262014907254879</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>49.0201129508547</v>
+        <v>60.03138866666666</v>
       </c>
       <c r="N8">
-        <v>49.0201129508547</v>
+        <v>180.094166</v>
       </c>
       <c r="O8">
-        <v>0.4548638841585946</v>
+        <v>0.4977506538398792</v>
       </c>
       <c r="P8">
-        <v>0.4548638841585946</v>
+        <v>0.4977506538398792</v>
       </c>
       <c r="Q8">
-        <v>3489.405480311318</v>
+        <v>4314.6336964361</v>
       </c>
       <c r="R8">
-        <v>3489.405480311318</v>
+        <v>38831.70326792491</v>
       </c>
       <c r="S8">
-        <v>0.3847717497207021</v>
+        <v>0.4112423322120944</v>
       </c>
       <c r="T8">
-        <v>0.3847717497207021</v>
+        <v>0.4112423322120945</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>71.1831383132396</v>
+        <v>71.87296166666665</v>
       </c>
       <c r="H9">
-        <v>71.1831383132396</v>
+        <v>215.618885</v>
       </c>
       <c r="I9">
-        <v>0.8459052545630247</v>
+        <v>0.8262014907254878</v>
       </c>
       <c r="J9">
-        <v>0.8459052545630247</v>
+        <v>0.8262014907254879</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.03427352759727</v>
+        <v>4.668551</v>
       </c>
       <c r="N9">
-        <v>4.03427352759727</v>
+        <v>14.005653</v>
       </c>
       <c r="O9">
-        <v>0.03743453892815018</v>
+        <v>0.03870932131252084</v>
       </c>
       <c r="P9">
-        <v>0.03743453892815018</v>
+        <v>0.03870932131252084</v>
       </c>
       <c r="Q9">
-        <v>287.1722505083974</v>
+        <v>335.5425870618783</v>
       </c>
       <c r="R9">
-        <v>287.1722505083974</v>
+        <v>3019.883283556905</v>
       </c>
       <c r="S9">
-        <v>0.03166607318146633</v>
+        <v>0.03198169897337661</v>
       </c>
       <c r="T9">
-        <v>0.03166607318146633</v>
+        <v>0.03198169897337662</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>10.8191084603504</v>
+        <v>0.04149633333333334</v>
       </c>
       <c r="H10">
-        <v>10.8191084603504</v>
+        <v>0.124489</v>
       </c>
       <c r="I10">
-        <v>0.1285689408076502</v>
+        <v>0.0004770129359444803</v>
       </c>
       <c r="J10">
-        <v>0.1285689408076502</v>
+        <v>0.0004770129359444803</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>33.54630310326</v>
+        <v>34.36078833333333</v>
       </c>
       <c r="N10">
-        <v>33.54630310326</v>
+        <v>103.082365</v>
       </c>
       <c r="O10">
-        <v>0.3112804277707056</v>
+        <v>0.28490270239021</v>
       </c>
       <c r="P10">
-        <v>0.3112804277707056</v>
+        <v>0.28490270239021</v>
       </c>
       <c r="Q10">
-        <v>362.9410917179591</v>
+        <v>1.425846726276111</v>
       </c>
       <c r="R10">
-        <v>362.9410917179591</v>
+        <v>12.832620536485</v>
       </c>
       <c r="S10">
-        <v>0.04002099489263188</v>
+        <v>0.0001359022745256706</v>
       </c>
       <c r="T10">
-        <v>0.04002099489263188</v>
+        <v>0.0001359022745256706</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>10.8191084603504</v>
+        <v>0.04149633333333334</v>
       </c>
       <c r="H11">
-        <v>10.8191084603504</v>
+        <v>0.124489</v>
       </c>
       <c r="I11">
-        <v>0.1285689408076502</v>
+        <v>0.0004770129359444803</v>
       </c>
       <c r="J11">
-        <v>0.1285689408076502</v>
+        <v>0.0004770129359444803</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.1680620340201</v>
+        <v>21.54461566666667</v>
       </c>
       <c r="N11">
-        <v>21.1680620340201</v>
+        <v>64.633847</v>
       </c>
       <c r="O11">
-        <v>0.1964211491425497</v>
+        <v>0.17863732245739</v>
       </c>
       <c r="P11">
-        <v>0.1964211491425497</v>
+        <v>0.1786373224573899</v>
       </c>
       <c r="Q11">
-        <v>229.0195590414889</v>
+        <v>0.8940225532425558</v>
       </c>
       <c r="R11">
-        <v>229.0195590414889</v>
+        <v>8.046202979183001</v>
       </c>
       <c r="S11">
-        <v>0.0252536590974791</v>
+        <v>8.521231365466045E-05</v>
       </c>
       <c r="T11">
-        <v>0.0252536590974791</v>
+        <v>8.521231365466043E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>10.8191084603504</v>
+        <v>0.04149633333333334</v>
       </c>
       <c r="H12">
-        <v>10.8191084603504</v>
+        <v>0.124489</v>
       </c>
       <c r="I12">
-        <v>0.1285689408076502</v>
+        <v>0.0004770129359444803</v>
       </c>
       <c r="J12">
-        <v>0.1285689408076502</v>
+        <v>0.0004770129359444803</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>49.0201129508547</v>
+        <v>60.03138866666666</v>
       </c>
       <c r="N12">
-        <v>49.0201129508547</v>
+        <v>180.094166</v>
       </c>
       <c r="O12">
-        <v>0.4548638841585946</v>
+        <v>0.4977506538398792</v>
       </c>
       <c r="P12">
-        <v>0.4548638841585946</v>
+        <v>0.4977506538398792</v>
       </c>
       <c r="Q12">
-        <v>530.3539187539243</v>
+        <v>2.491082514574889</v>
       </c>
       <c r="R12">
-        <v>530.3539187539243</v>
+        <v>22.419742631174</v>
       </c>
       <c r="S12">
-        <v>0.0584813677979242</v>
+        <v>0.0002374335007564455</v>
       </c>
       <c r="T12">
-        <v>0.0584813677979242</v>
+        <v>0.0002374335007564455</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.04149633333333334</v>
+      </c>
+      <c r="H13">
+        <v>0.124489</v>
+      </c>
+      <c r="I13">
+        <v>0.0004770129359444803</v>
+      </c>
+      <c r="J13">
+        <v>0.0004770129359444803</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>4.668551</v>
+      </c>
+      <c r="N13">
+        <v>14.005653</v>
+      </c>
+      <c r="O13">
+        <v>0.03870932131252084</v>
+      </c>
+      <c r="P13">
+        <v>0.03870932131252084</v>
+      </c>
+      <c r="Q13">
+        <v>0.1937277484796667</v>
+      </c>
+      <c r="R13">
+        <v>1.743549736317</v>
+      </c>
+      <c r="S13">
+        <v>1.846484700770381E-05</v>
+      </c>
+      <c r="T13">
+        <v>1.846484700770381E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>11.68797133333333</v>
+      </c>
+      <c r="H14">
+        <v>35.063914</v>
+      </c>
+      <c r="I14">
+        <v>0.1343567749989538</v>
+      </c>
+      <c r="J14">
+        <v>0.1343567749989538</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>34.36078833333333</v>
+      </c>
+      <c r="N14">
+        <v>103.082365</v>
+      </c>
+      <c r="O14">
+        <v>0.28490270239021</v>
+      </c>
+      <c r="P14">
+        <v>0.28490270239021</v>
+      </c>
+      <c r="Q14">
+        <v>401.6079090307344</v>
+      </c>
+      <c r="R14">
+        <v>3614.47118127661</v>
+      </c>
+      <c r="S14">
+        <v>0.03827860828163535</v>
+      </c>
+      <c r="T14">
+        <v>0.03827860828163535</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>11.68797133333333</v>
+      </c>
+      <c r="H15">
+        <v>35.063914</v>
+      </c>
+      <c r="I15">
+        <v>0.1343567749989538</v>
+      </c>
+      <c r="J15">
+        <v>0.1343567749989538</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>21.54461566666667</v>
+      </c>
+      <c r="N15">
+        <v>64.633847</v>
+      </c>
+      <c r="O15">
+        <v>0.17863732245739</v>
+      </c>
+      <c r="P15">
+        <v>0.1786373224573899</v>
+      </c>
+      <c r="Q15">
+        <v>251.8128502996842</v>
+      </c>
+      <c r="R15">
+        <v>2266.315652697158</v>
+      </c>
+      <c r="S15">
+        <v>0.02400113453982311</v>
+      </c>
+      <c r="T15">
+        <v>0.02400113453982311</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>10.8191084603504</v>
-      </c>
-      <c r="H13">
-        <v>10.8191084603504</v>
-      </c>
-      <c r="I13">
-        <v>0.1285689408076502</v>
-      </c>
-      <c r="J13">
-        <v>0.1285689408076502</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>4.03427352759727</v>
-      </c>
-      <c r="N13">
-        <v>4.03427352759727</v>
-      </c>
-      <c r="O13">
-        <v>0.03743453892815018</v>
-      </c>
-      <c r="P13">
-        <v>0.03743453892815018</v>
-      </c>
-      <c r="Q13">
-        <v>43.64724285379527</v>
-      </c>
-      <c r="R13">
-        <v>43.64724285379527</v>
-      </c>
-      <c r="S13">
-        <v>0.004812919019615017</v>
-      </c>
-      <c r="T13">
-        <v>0.004812919019615017</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>11.68797133333333</v>
+      </c>
+      <c r="H16">
+        <v>35.063914</v>
+      </c>
+      <c r="I16">
+        <v>0.1343567749989538</v>
+      </c>
+      <c r="J16">
+        <v>0.1343567749989538</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>60.03138866666666</v>
+      </c>
+      <c r="N16">
+        <v>180.094166</v>
+      </c>
+      <c r="O16">
+        <v>0.4977506538398792</v>
+      </c>
+      <c r="P16">
+        <v>0.4977506538398792</v>
+      </c>
+      <c r="Q16">
+        <v>701.6451498361914</v>
+      </c>
+      <c r="R16">
+        <v>6314.806348525723</v>
+      </c>
+      <c r="S16">
+        <v>0.06687617260354681</v>
+      </c>
+      <c r="T16">
+        <v>0.06687617260354681</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>11.68797133333333</v>
+      </c>
+      <c r="H17">
+        <v>35.063914</v>
+      </c>
+      <c r="I17">
+        <v>0.1343567749989538</v>
+      </c>
+      <c r="J17">
+        <v>0.1343567749989538</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>4.668551</v>
+      </c>
+      <c r="N17">
+        <v>14.005653</v>
+      </c>
+      <c r="O17">
+        <v>0.03870932131252084</v>
+      </c>
+      <c r="P17">
+        <v>0.03870932131252084</v>
+      </c>
+      <c r="Q17">
+        <v>54.56589025620466</v>
+      </c>
+      <c r="R17">
+        <v>491.093012305842</v>
+      </c>
+      <c r="S17">
+        <v>0.00520085957394857</v>
+      </c>
+      <c r="T17">
+        <v>0.005200859573948571</v>
       </c>
     </row>
   </sheetData>
